--- a/simulation_data/iterative_algorithm/i_error_level_2_percent_water_60.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_2_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.93330619231769</v>
+        <v>89.78910681399515</v>
       </c>
       <c r="D2" t="n">
-        <v>3.19663373328282</v>
+        <v>2.580107215112129</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.8245329777881</v>
+        <v>89.25898879653732</v>
       </c>
       <c r="D3" t="n">
-        <v>3.015434654192706</v>
+        <v>2.915204385818383</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.91421382164546</v>
+        <v>87.99895702939119</v>
       </c>
       <c r="D4" t="n">
-        <v>2.748966382435733</v>
+        <v>2.892023717117355</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.93865882554088</v>
+        <v>87.10097153899942</v>
       </c>
       <c r="D5" t="n">
-        <v>2.8932801225594</v>
+        <v>2.68911863651114</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.18659419879891</v>
+        <v>85.90407707388192</v>
       </c>
       <c r="D6" t="n">
-        <v>3.19130556604955</v>
+        <v>2.935295156194764</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.34447415270995</v>
+        <v>84.63206504425243</v>
       </c>
       <c r="D7" t="n">
-        <v>2.77697768772187</v>
+        <v>2.699389261486259</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.22704710928974</v>
+        <v>83.72102714274264</v>
       </c>
       <c r="D8" t="n">
-        <v>3.039701435958038</v>
+        <v>3.007583328653276</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.59192523324823</v>
+        <v>83.50734795385985</v>
       </c>
       <c r="D9" t="n">
-        <v>2.961098905672348</v>
+        <v>2.709121265385739</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.8869122665413</v>
+        <v>82.00273211355183</v>
       </c>
       <c r="D10" t="n">
-        <v>2.903195018263523</v>
+        <v>2.661481317055673</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.3545678347394</v>
+        <v>80.9253206601033</v>
       </c>
       <c r="D11" t="n">
-        <v>2.93731347100148</v>
+        <v>2.769755752506074</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.88636507321534</v>
+        <v>80.2220732966132</v>
       </c>
       <c r="D12" t="n">
-        <v>2.884395175178232</v>
+        <v>2.592981298059541</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.721422123154</v>
+        <v>79.00726247044757</v>
       </c>
       <c r="D13" t="n">
-        <v>2.870134335163336</v>
+        <v>2.62915888768445</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.84832227283337</v>
+        <v>77.41481237565868</v>
       </c>
       <c r="D14" t="n">
-        <v>3.396578163038567</v>
+        <v>2.775096050498</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.97046637381767</v>
+        <v>77.00940007666942</v>
       </c>
       <c r="D15" t="n">
-        <v>3.168087886701502</v>
+        <v>2.886079328173264</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.59185443320743</v>
+        <v>76.20796082533712</v>
       </c>
       <c r="D16" t="n">
-        <v>2.684194112856724</v>
+        <v>2.969412968192185</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.23040654086674</v>
+        <v>74.91679533784935</v>
       </c>
       <c r="D17" t="n">
-        <v>2.887888268060096</v>
+        <v>2.896290535498634</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.86844345884582</v>
+        <v>73.69021480646256</v>
       </c>
       <c r="D18" t="n">
-        <v>3.135568340522889</v>
+        <v>2.669191062262017</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.93028499919909</v>
+        <v>72.53260084319912</v>
       </c>
       <c r="D19" t="n">
-        <v>2.887086419184897</v>
+        <v>3.208331720713882</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.40752407868018</v>
+        <v>72.07352513922501</v>
       </c>
       <c r="D20" t="n">
-        <v>2.969683298689742</v>
+        <v>2.55857210653251</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.91482425007584</v>
+        <v>71.40995126229714</v>
       </c>
       <c r="D21" t="n">
-        <v>2.64292237212857</v>
+        <v>2.994479777296854</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.59377884879504</v>
+        <v>69.76272905911938</v>
       </c>
       <c r="D22" t="n">
-        <v>2.754602377632253</v>
+        <v>2.657338869346135</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.90230342310947</v>
+        <v>68.7612109505182</v>
       </c>
       <c r="D23" t="n">
-        <v>2.987372766507523</v>
+        <v>2.893156401810449</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.86489239939898</v>
+        <v>68.10867546367587</v>
       </c>
       <c r="D24" t="n">
-        <v>3.385213121612027</v>
+        <v>2.870302075841708</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.9367433124076</v>
+        <v>67.02877819912111</v>
       </c>
       <c r="D25" t="n">
-        <v>2.73189390863373</v>
+        <v>3.141491091295705</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.62476582011786</v>
+        <v>65.75942951387943</v>
       </c>
       <c r="D26" t="n">
-        <v>2.729049027277357</v>
+        <v>2.776529859880339</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.11113790996558</v>
+        <v>64.88712723331723</v>
       </c>
       <c r="D27" t="n">
-        <v>3.257362109289551</v>
+        <v>2.694775234186128</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.82347493576157</v>
+        <v>64.20838803966203</v>
       </c>
       <c r="D28" t="n">
-        <v>3.046033450074304</v>
+        <v>3.043366342176095</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.32120081266303</v>
+        <v>63.50044567709869</v>
       </c>
       <c r="D29" t="n">
-        <v>3.164245983290941</v>
+        <v>3.04164450425059</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.91548175380226</v>
+        <v>62.02077775688058</v>
       </c>
       <c r="D30" t="n">
-        <v>2.678731179721664</v>
+        <v>3.101941342752605</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.8231599794732</v>
+        <v>61.24709026557709</v>
       </c>
       <c r="D31" t="n">
-        <v>3.164568365779084</v>
+        <v>2.733004484237989</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.48883951887638</v>
+        <v>59.95362235195498</v>
       </c>
       <c r="D32" t="n">
-        <v>3.126253565537576</v>
+        <v>2.853413949679844</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.39320022911286</v>
+        <v>59.09848165797969</v>
       </c>
       <c r="D33" t="n">
-        <v>2.86485559018514</v>
+        <v>2.692381209707424</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.08658942060261</v>
+        <v>58.4411826468019</v>
       </c>
       <c r="D34" t="n">
-        <v>3.246052152453825</v>
+        <v>2.694633071507488</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.34472307563305</v>
+        <v>56.66268538627968</v>
       </c>
       <c r="D35" t="n">
-        <v>3.126935287802203</v>
+        <v>3.225047886054527</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.48561001441534</v>
+        <v>55.55346798625312</v>
       </c>
       <c r="D36" t="n">
-        <v>2.664830591582948</v>
+        <v>2.333336329488325</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.26563992464877</v>
+        <v>54.18194199755069</v>
       </c>
       <c r="D37" t="n">
-        <v>3.140903697022416</v>
+        <v>2.422787637985999</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.25593669779125</v>
+        <v>54.13194999393517</v>
       </c>
       <c r="D38" t="n">
-        <v>3.297066371655214</v>
+        <v>3.021411102258276</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.62210574549256</v>
+        <v>53.16414159541185</v>
       </c>
       <c r="D39" t="n">
-        <v>2.866585575088027</v>
+        <v>2.634143896732593</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.48101754457937</v>
+        <v>51.62769950824382</v>
       </c>
       <c r="D40" t="n">
-        <v>2.91221714457561</v>
+        <v>2.862139656113886</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.45571189709677</v>
+        <v>50.6066197812886</v>
       </c>
       <c r="D41" t="n">
-        <v>2.82502535242739</v>
+        <v>2.425246341168122</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.98561190628955</v>
+        <v>49.86597484746984</v>
       </c>
       <c r="D42" t="n">
-        <v>2.701626249513779</v>
+        <v>3.058464203104851</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.47387850738151</v>
+        <v>49.17012565060655</v>
       </c>
       <c r="D43" t="n">
-        <v>2.718685863799397</v>
+        <v>3.158418088706254</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.09062579392941</v>
+        <v>47.75661985851957</v>
       </c>
       <c r="D44" t="n">
-        <v>3.110743977444192</v>
+        <v>2.973412590230838</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.22054432015905</v>
+        <v>46.77238875370617</v>
       </c>
       <c r="D45" t="n">
-        <v>3.128108817877111</v>
+        <v>2.928552915385212</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.57496302656068</v>
+        <v>46.08947629271947</v>
       </c>
       <c r="D46" t="n">
-        <v>3.390501787219722</v>
+        <v>2.718400495326486</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.30437349967231</v>
+        <v>45.21463475675918</v>
       </c>
       <c r="D47" t="n">
-        <v>3.293144315240551</v>
+        <v>2.961046413199625</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.79455176527726</v>
+        <v>44.13868699201865</v>
       </c>
       <c r="D48" t="n">
-        <v>2.686303549748152</v>
+        <v>2.778746001771377</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.63405496042864</v>
+        <v>43.03588988433016</v>
       </c>
       <c r="D49" t="n">
-        <v>2.901204745186762</v>
+        <v>3.053250104131998</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.66357837832962</v>
+        <v>41.79598085773639</v>
       </c>
       <c r="D50" t="n">
-        <v>3.095670365907622</v>
+        <v>3.037402624215831</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.58442011263949</v>
+        <v>41.33744830978857</v>
       </c>
       <c r="D51" t="n">
-        <v>2.679554710546119</v>
+        <v>3.151835312447844</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.55999316155994</v>
+        <v>39.77625905818694</v>
       </c>
       <c r="D52" t="n">
-        <v>2.910050996243027</v>
+        <v>3.039979098596101</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.71107739555716</v>
+        <v>38.88782175780845</v>
       </c>
       <c r="D53" t="n">
-        <v>3.147234089888399</v>
+        <v>2.732779404129705</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.98654127374481</v>
+        <v>38.21167232034671</v>
       </c>
       <c r="D54" t="n">
-        <v>2.56007309975774</v>
+        <v>2.605273252629237</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.83554860806445</v>
+        <v>36.71663963629201</v>
       </c>
       <c r="D55" t="n">
-        <v>3.217082821869932</v>
+        <v>2.92057500251575</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.51456837814668</v>
+        <v>36.07204219620419</v>
       </c>
       <c r="D56" t="n">
-        <v>3.050421029669454</v>
+        <v>2.887611711074693</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.29039165255645</v>
+        <v>35.59554609655506</v>
       </c>
       <c r="D57" t="n">
-        <v>2.59531922595867</v>
+        <v>3.126853903950051</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.56423803746864</v>
+        <v>34.32128007996663</v>
       </c>
       <c r="D58" t="n">
-        <v>2.910221216533311</v>
+        <v>2.794765023496617</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.05796184773008</v>
+        <v>33.22743952488911</v>
       </c>
       <c r="D59" t="n">
-        <v>3.004263538670676</v>
+        <v>2.952903263447768</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.19828859335274</v>
+        <v>32.04712251195282</v>
       </c>
       <c r="D60" t="n">
-        <v>2.87206365274813</v>
+        <v>3.04510675236743</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.78922242012976</v>
+        <v>30.99269558900003</v>
       </c>
       <c r="D61" t="n">
-        <v>2.859067813330835</v>
+        <v>2.916118791436163</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.33204213281469</v>
+        <v>30.32498886812252</v>
       </c>
       <c r="D62" t="n">
-        <v>2.959953163419761</v>
+        <v>2.618693338813407</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.8513100663751</v>
+        <v>28.84526807154498</v>
       </c>
       <c r="D63" t="n">
-        <v>2.715607730291552</v>
+        <v>3.269165275986056</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.75500501608126</v>
+        <v>28.11711526517906</v>
       </c>
       <c r="D64" t="n">
-        <v>3.161967937515758</v>
+        <v>3.071476339068115</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.3987544268393</v>
+        <v>26.57071337866796</v>
       </c>
       <c r="D65" t="n">
-        <v>2.854280560661118</v>
+        <v>3.224821363881753</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.70936138077428</v>
+        <v>25.39073117739929</v>
       </c>
       <c r="D66" t="n">
-        <v>2.633981679545053</v>
+        <v>2.855501304123206</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.83102721985751</v>
+        <v>25.23938147385078</v>
       </c>
       <c r="D67" t="n">
-        <v>2.845181831856529</v>
+        <v>2.890584057122398</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.95182039213909</v>
+        <v>24.3195586535208</v>
       </c>
       <c r="D68" t="n">
-        <v>3.223383987397246</v>
+        <v>3.05329819227299</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.57564850643264</v>
+        <v>23.33670392672758</v>
       </c>
       <c r="D69" t="n">
-        <v>2.605990664475457</v>
+        <v>2.616528105818178</v>
       </c>
     </row>
   </sheetData>
